--- a/Auto-Eval-ASI2-r1.xlsx
+++ b/Auto-Eval-ASI2-r1.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D225095-C5C7-493D-AE06-42FF87C45CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771274B2-0B38-4578-B437-CE62C2B92E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Auto-Evaluation" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
@@ -97,7 +97,7 @@
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>Author</author>
+    <author>Auteur</author>
   </authors>
   <commentList>
     <comment ref="A6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
@@ -430,26 +430,6 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -488,6 +468,26 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -841,11 +841,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S20" sqref="S20"/>
+    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="27.42578125" style="1" customWidth="1"/>
   </cols>
@@ -947,40 +947,40 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="5">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="E4" s="5">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="12">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="H4" s="5">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="K4" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="L4" s="13">
+        <v>0</v>
+      </c>
+      <c r="M4" s="12">
         <v>0.2</v>
       </c>
-      <c r="L4" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M4" s="12">
-        <v>0.4</v>
-      </c>
       <c r="N4" s="5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="O4" s="13">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P4" s="12">
         <f>D4+G4+J4+M4</f>
@@ -988,7 +988,7 @@
       </c>
       <c r="Q4" s="5">
         <f>E4+H4+K4+N4</f>
-        <v>0.99999999999999989</v>
+        <v>1</v>
       </c>
       <c r="R4" s="5">
         <f>F4+I4+L4+O4</f>
@@ -1058,10 +1058,10 @@
         <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J7" s="14" t="s">
         <v>9</v>
@@ -1101,10 +1101,10 @@
         <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J8" s="14" t="s">
         <v>9</v>
@@ -1144,10 +1144,10 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J9" s="14" t="s">
         <v>13</v>
@@ -1187,10 +1187,10 @@
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>9</v>
@@ -1230,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J11" s="14" t="s">
         <v>9</v>
@@ -1272,11 +1272,11 @@
       <c r="G12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="H12" t="s">
-        <v>14</v>
+      <c r="H12" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J12" s="14" t="s">
         <v>9</v>
@@ -1315,11 +1315,11 @@
       <c r="G13" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="H13" t="s">
-        <v>14</v>
+      <c r="H13" s="14" t="s">
+        <v>9</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J13" s="14" t="s">
         <v>9</v>
@@ -1359,10 +1359,10 @@
         <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="14" t="s">
         <v>9</v>
@@ -1402,10 +1402,10 @@
         <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J15" s="14" t="s">
         <v>9</v>
@@ -1445,10 +1445,10 @@
         <v>13</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J16" s="14" t="s">
         <v>10</v>
@@ -1488,10 +1488,10 @@
         <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J17" s="14" t="s">
         <v>9</v>
@@ -1531,10 +1531,10 @@
         <v>13</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="14" t="s">
         <v>11</v>
@@ -1574,10 +1574,10 @@
         <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J19" s="14" t="s">
         <v>10</v>
@@ -1617,10 +1617,10 @@
         <v>11</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J20" s="14" t="s">
         <v>10</v>
@@ -1660,10 +1660,10 @@
         <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J21" s="14" t="s">
         <v>14</v>
@@ -1703,10 +1703,10 @@
         <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J22" s="14" t="s">
         <v>14</v>
@@ -1749,7 +1749,7 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J23" s="14" t="s">
         <v>14</v>
@@ -1789,10 +1789,10 @@
         <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J24" s="14" t="s">
         <v>10</v>
@@ -1832,10 +1832,10 @@
         <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" s="14" t="s">
         <v>11</v>
@@ -1894,10 +1894,10 @@
         <v>13</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J27" s="14" t="s">
         <v>9</v>
@@ -1937,10 +1937,10 @@
         <v>13</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J28" s="14" t="s">
         <v>9</v>
@@ -1980,10 +1980,10 @@
         <v>9</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J29" s="14" t="s">
         <v>9</v>
@@ -2066,10 +2066,10 @@
         <v>13</v>
       </c>
       <c r="H31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J31" s="14" t="s">
         <v>10</v>
@@ -2152,10 +2152,10 @@
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J33" s="14" t="s">
         <v>9</v>
@@ -2195,10 +2195,10 @@
         <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J34" s="14" t="s">
         <v>14</v>
@@ -2238,10 +2238,10 @@
         <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J35" s="14" t="s">
         <v>14</v>
@@ -2281,10 +2281,10 @@
         <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J36" s="14" t="s">
         <v>14</v>
@@ -2324,10 +2324,10 @@
         <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J37" s="14" t="s">
         <v>14</v>
@@ -2367,10 +2367,10 @@
         <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J38" s="14" t="s">
         <v>14</v>
@@ -2453,10 +2453,10 @@
         <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J40" s="14" t="s">
         <v>14</v>
@@ -2496,10 +2496,10 @@
         <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>14</v>
@@ -2539,10 +2539,10 @@
         <v>10</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J42" s="14" t="s">
         <v>14</v>
@@ -2582,10 +2582,10 @@
         <v>10</v>
       </c>
       <c r="H43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>14</v>
@@ -2641,50 +2641,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O25">
-    <cfRule type="cellIs" dxfId="13" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:O43">
-    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="1" priority="109" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="109" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2707,7 +2707,7 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">

--- a/Auto-Eval-ASI2-r1.xlsx
+++ b/Auto-Eval-ASI2-r1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771274B2-0B38-4578-B437-CE62C2B92E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B468514-82A7-48B8-B9AB-C0140F220AAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -430,6 +430,26 @@
   </cellStyles>
   <dxfs count="14">
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="0" tint="-0.14996795556505021"/>
@@ -468,26 +488,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -841,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -947,7 +947,7 @@
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="5">
-        <v>0.3</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E4" s="5">
         <v>0.35</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="12">
-        <v>0.25</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="K4" s="5">
         <v>0.25</v>
@@ -1067,19 +1067,19 @@
         <v>9</v>
       </c>
       <c r="K7" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L7" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O7" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="O7" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
@@ -1110,19 +1110,19 @@
         <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L8" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N8" t="s">
-        <v>14</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O8" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -1153,19 +1153,19 @@
         <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L9" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M9" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N9" t="s">
-        <v>14</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="O9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1196,19 +1196,19 @@
         <v>9</v>
       </c>
       <c r="K10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L10" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N10" t="s">
-        <v>14</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O10" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
@@ -1239,19 +1239,19 @@
         <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L11" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M11" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N11" t="s">
-        <v>14</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O11" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
@@ -1282,19 +1282,19 @@
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L12" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M12" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O12" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
@@ -1325,19 +1325,19 @@
         <v>9</v>
       </c>
       <c r="K13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L13" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M13" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="N13" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="36.75" x14ac:dyDescent="0.25">
@@ -1368,19 +1368,19 @@
         <v>9</v>
       </c>
       <c r="K14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L14" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M14" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N14" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
@@ -1411,19 +1411,19 @@
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L15" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M15" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:18" ht="24.75" x14ac:dyDescent="0.25">
@@ -1454,19 +1454,19 @@
         <v>10</v>
       </c>
       <c r="K16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L16" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N16" t="s">
-        <v>14</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -1497,19 +1497,19 @@
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L17" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M17" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N17" t="s">
-        <v>14</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1540,19 +1540,19 @@
         <v>11</v>
       </c>
       <c r="K18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L18" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N18" t="s">
-        <v>14</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1583,19 +1583,19 @@
         <v>10</v>
       </c>
       <c r="K19" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L19" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M19" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N19" t="s">
-        <v>14</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1626,19 +1626,19 @@
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L20" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M20" s="14" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="N20" t="s">
-        <v>14</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1669,19 +1669,19 @@
         <v>14</v>
       </c>
       <c r="K21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L21" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M21" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N21" t="s">
-        <v>14</v>
-      </c>
-      <c r="O21" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O21" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1712,19 +1712,19 @@
         <v>14</v>
       </c>
       <c r="K22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L22" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M22" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N22" t="s">
-        <v>14</v>
-      </c>
-      <c r="O22" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O22" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1758,7 +1758,7 @@
         <v>14</v>
       </c>
       <c r="L23" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M23" s="14" t="s">
         <v>14</v>
@@ -1766,8 +1766,8 @@
       <c r="N23" t="s">
         <v>14</v>
       </c>
-      <c r="O23" s="15" t="s">
-        <v>14</v>
+      <c r="O23" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1789,7 +1789,7 @@
         <v>9</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I24" t="s">
         <v>9</v>
@@ -1798,19 +1798,19 @@
         <v>10</v>
       </c>
       <c r="K24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L24" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M24" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N24" t="s">
-        <v>14</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="O24" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.25">
@@ -1829,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H25" t="s">
         <v>13</v>
@@ -1841,19 +1841,19 @@
         <v>11</v>
       </c>
       <c r="K25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L25" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M25" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N25" t="s">
-        <v>14</v>
-      </c>
-      <c r="O25" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O25" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -1873,7 +1873,7 @@
       <c r="L26" s="11"/>
       <c r="M26" s="10"/>
       <c r="N26" s="3"/>
-      <c r="O26" s="11"/>
+      <c r="O26" s="3"/>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
@@ -1903,19 +1903,19 @@
         <v>9</v>
       </c>
       <c r="K27" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L27" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M27" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N27" t="s">
-        <v>14</v>
-      </c>
-      <c r="O27" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -1946,19 +1946,19 @@
         <v>9</v>
       </c>
       <c r="K28" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L28" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M28" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N28" t="s">
-        <v>14</v>
-      </c>
-      <c r="O28" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="O28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -1989,19 +1989,19 @@
         <v>9</v>
       </c>
       <c r="K29" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L29" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M29" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N29" t="s">
-        <v>14</v>
-      </c>
-      <c r="O29" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="O29" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2043,7 +2043,7 @@
       <c r="N30" t="s">
         <v>14</v>
       </c>
-      <c r="O30" s="15" t="s">
+      <c r="O30" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2075,19 +2075,19 @@
         <v>10</v>
       </c>
       <c r="K31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L31" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="M31" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N31" t="s">
-        <v>14</v>
-      </c>
-      <c r="O31" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O31" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2109,28 +2109,28 @@
         <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" s="14" t="s">
         <v>14</v>
       </c>
       <c r="K32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L32" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M32" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N32" t="s">
-        <v>14</v>
-      </c>
-      <c r="O32" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O32" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2161,19 +2161,19 @@
         <v>9</v>
       </c>
       <c r="K33" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L33" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M33" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N33" t="s">
-        <v>14</v>
-      </c>
-      <c r="O33" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O33" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2204,19 +2204,19 @@
         <v>14</v>
       </c>
       <c r="K34" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L34" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M34" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N34" t="s">
-        <v>14</v>
-      </c>
-      <c r="O34" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O34" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -2247,19 +2247,19 @@
         <v>14</v>
       </c>
       <c r="K35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="L35" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M35" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N35" t="s">
-        <v>14</v>
-      </c>
-      <c r="O35" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O35" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -2290,19 +2290,19 @@
         <v>14</v>
       </c>
       <c r="K36" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L36" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M36" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O36" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O36" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -2333,19 +2333,19 @@
         <v>14</v>
       </c>
       <c r="K37" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L37" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M37" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N37" t="s">
-        <v>14</v>
-      </c>
-      <c r="O37" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O37" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -2376,19 +2376,19 @@
         <v>14</v>
       </c>
       <c r="K38" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L38" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M38" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N38" t="s">
-        <v>14</v>
-      </c>
-      <c r="O38" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O38" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -2430,7 +2430,7 @@
       <c r="N39" t="s">
         <v>14</v>
       </c>
-      <c r="O39" s="15" t="s">
+      <c r="O39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2462,19 +2462,19 @@
         <v>14</v>
       </c>
       <c r="K40" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L40" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M40" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N40" t="s">
-        <v>14</v>
-      </c>
-      <c r="O40" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O40" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="24.75" x14ac:dyDescent="0.25">
@@ -2505,19 +2505,19 @@
         <v>14</v>
       </c>
       <c r="K41" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L41" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M41" s="14" t="s">
         <v>14</v>
       </c>
       <c r="N41" t="s">
-        <v>14</v>
-      </c>
-      <c r="O41" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="O41" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2545,22 +2545,22 @@
         <v>10</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K42" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L42" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M42" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N42" t="s">
-        <v>14</v>
-      </c>
-      <c r="O42" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O42" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="21.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -2588,22 +2588,22 @@
         <v>10</v>
       </c>
       <c r="J43" s="14" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="K43" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="L43" s="15" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="M43" s="14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="N43" t="s">
-        <v>14</v>
-      </c>
-      <c r="O43" s="15" t="s">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="O43" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2641,55 +2641,55 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7:O25">
-    <cfRule type="cellIs" dxfId="5" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="31" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="33" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="34" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="36" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:O43">
-    <cfRule type="cellIs" dxfId="13" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>"A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" operator="equal">
       <formula>"AB"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="21" operator="equal">
       <formula>"B"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="22" operator="equal">
       <formula>"C"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="23" operator="equal">
       <formula>"D"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="24" operator="equal">
       <formula>"-"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P4:R4">
-    <cfRule type="cellIs" dxfId="7" priority="109" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="109" operator="notEqual">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="110" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D27:O43 D7:O25" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:O25 D27:O43" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1 xml:space="preserve"> Note</formula1>
     </dataValidation>
   </dataValidations>
